--- a/trans.xlsx
+++ b/trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axsult1/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C590F734-2DB1-144A-9FBF-6BA9AEEE4FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CA0D41-BAF5-794C-BEE7-7A502D84B3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="17240" windowHeight="21600" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreationInfo" sheetId="1" r:id="rId1"/>
@@ -9753,7 +9753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F439"/>
   <sheetViews>
-    <sheetView topLeftCell="A393" workbookViewId="0">
+    <sheetView topLeftCell="A90" workbookViewId="0">
       <selection activeCell="F435" sqref="F435"/>
     </sheetView>
   </sheetViews>
@@ -15101,7 +15101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -15124,7 +15126,7 @@
         <v>175</v>
       </c>
       <c r="C2">
-        <v>-773.43</v>
+        <v>636.41999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -15133,11 +15135,11 @@
       </c>
       <c r="D3">
         <f>SUM(C2:C2)</f>
-        <v>-773.43</v>
+        <v>636.41999999999996</v>
       </c>
       <c r="E3">
         <f>SUM(C2:C2)</f>
-        <v>-773.43</v>
+        <v>636.41999999999996</v>
       </c>
       <c r="F3" t="s">
         <v>195</v>
@@ -15164,7 +15166,7 @@
       </c>
       <c r="E5">
         <f>SUM(C2:C4)</f>
-        <v>-137.01</v>
+        <v>1272.8399999999999</v>
       </c>
       <c r="F5" t="s">
         <v>426</v>
@@ -15191,7 +15193,7 @@
       </c>
       <c r="E7">
         <f>SUM(C2:C6)</f>
-        <v>499.40999999999997</v>
+        <v>1909.2599999999998</v>
       </c>
       <c r="F7" t="s">
         <v>631</v>
@@ -15218,7 +15220,7 @@
       </c>
       <c r="E9">
         <f>SUM(C2:C8)</f>
-        <v>1135.83</v>
+        <v>2545.6799999999998</v>
       </c>
       <c r="F9" t="s">
         <v>826</v>
@@ -15245,7 +15247,7 @@
       </c>
       <c r="E11">
         <f>SUM(C2:C10)</f>
-        <v>1772.25</v>
+        <v>3182.1</v>
       </c>
       <c r="F11" t="s">
         <v>1072</v>
@@ -15272,7 +15274,7 @@
       </c>
       <c r="E13">
         <f>SUM(C2:C12)</f>
-        <v>2408.67</v>
+        <v>3818.52</v>
       </c>
       <c r="F13" t="s">
         <v>1306</v>
@@ -15286,7 +15288,7 @@
         <v>1562</v>
       </c>
       <c r="C14">
-        <v>-11903.36</v>
+        <v>636.41999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -15295,11 +15297,11 @@
       </c>
       <c r="D15">
         <f>SUM(C14:C14)</f>
-        <v>-11903.36</v>
+        <v>636.41999999999996</v>
       </c>
       <c r="E15">
         <f>SUM(C2:C14)</f>
-        <v>-9494.69</v>
+        <v>4454.9399999999996</v>
       </c>
       <c r="F15" t="s">
         <v>1566</v>
@@ -15326,7 +15328,7 @@
       </c>
       <c r="E17">
         <f>SUM(C2:C16)</f>
-        <v>-8858.27</v>
+        <v>5091.3599999999997</v>
       </c>
       <c r="F17" t="s">
         <v>1678</v>
@@ -15340,7 +15342,7 @@
         <v>1935</v>
       </c>
       <c r="C18">
-        <v>-14383.4</v>
+        <v>636.41999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -15349,11 +15351,11 @@
       </c>
       <c r="D19">
         <f>SUM(C18:C18)</f>
-        <v>-14383.4</v>
+        <v>636.41999999999996</v>
       </c>
       <c r="E19">
         <f>SUM(C2:C18)</f>
-        <v>-23241.67</v>
+        <v>5727.78</v>
       </c>
       <c r="F19" t="s">
         <v>1926</v>
@@ -15367,7 +15369,7 @@
         <v>2196</v>
       </c>
       <c r="C20">
-        <v>-7385.18</v>
+        <v>636.41999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -15376,11 +15378,11 @@
       </c>
       <c r="D21">
         <f>SUM(C20:C20)</f>
-        <v>-7385.18</v>
+        <v>636.41999999999996</v>
       </c>
       <c r="E21">
         <f>SUM(C2:C20)</f>
-        <v>-30626.85</v>
+        <v>6364.2</v>
       </c>
       <c r="F21" t="s">
         <v>2199</v>
@@ -15407,7 +15409,7 @@
       </c>
       <c r="E23">
         <f>SUM(C2:C22)</f>
-        <v>-29990.43</v>
+        <v>7000.62</v>
       </c>
       <c r="F23" t="s">
         <v>2463</v>
@@ -15430,7 +15432,7 @@
       </c>
       <c r="E25">
         <f>SUM(C2:C24)</f>
-        <v>-29354.010000000002</v>
+        <v>7637.04</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -15874,7 +15876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -66849,7 +66851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A18" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -67589,7 +67591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -68290,7 +68294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -68917,7 +68921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
